--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,22 +40,22 @@
     <t>name</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>dangerous</t>
+    <t>wrong</t>
   </si>
   <si>
     <t>addicted</t>
@@ -64,6 +64,9 @@
     <t>scary</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
@@ -79,13 +82,13 @@
     <t>best</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>important</t>
-  </si>
-  <si>
-    <t>better</t>
   </si>
   <si>
     <t>good</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,10 +463,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -521,13 +524,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -539,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>18</v>
       </c>
-      <c r="K3">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="L3">
-        <v>17</v>
-      </c>
       <c r="M3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -563,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -571,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -589,19 +592,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -613,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -624,10 +627,10 @@
         <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -639,19 +642,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -663,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -692,16 +695,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.631578947368421</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -713,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -721,13 +724,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9134615384615384</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -739,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.6</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -763,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -771,7 +774,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6842105263157895</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -789,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.5517241379310345</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -813,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -842,16 +845,16 @@
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.5066666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -863,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -871,13 +874,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4782608695652174</v>
+        <v>0.4710144927536232</v>
       </c>
       <c r="C10">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -889,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.04371584699453552</v>
+        <v>0.03825136612021858</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -913,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1050</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -921,13 +924,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3191489361702128</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -939,7 +942,33 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>32</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.3617021276595745</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
